--- a/infect-server/src/main/resources/templates/职工打卡信息导出表(含AI预测数据）.xlsx
+++ b/infect-server/src/main/resources/templates/职工打卡信息导出表(含AI预测数据）.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="409">
   <si>
     <t>基本信息</t>
   </si>
@@ -498,6 +498,9 @@
     <t>野外/户外活动史（种地/割草/打猎/采茶/放牧/采伐/旅游/其他）</t>
   </si>
   <si>
+    <t>其他户外活动方式名称</t>
+  </si>
+  <si>
     <t>是否到过鼠疫流行区（是/否/不清楚）</t>
   </si>
   <si>
@@ -579,6 +582,9 @@
     <t>接触其他动物（是/否）</t>
   </si>
   <si>
+    <t>其他动物名称</t>
+  </si>
+  <si>
     <t>发病前1个月居住地类型-丘陵或山区</t>
   </si>
   <si>
@@ -652,12 +658,6 @@
   </si>
   <si>
     <t>诊断疾病名称（VARCHAT255)可以空</t>
-  </si>
-  <si>
-    <t>其他户外活动方式名称</t>
-  </si>
-  <si>
-    <t>其他动物名称</t>
   </si>
   <si>
     <t>发病前9天内是否在鼠洞附近坐卧（是/否/不清楚）</t>
@@ -1267,14 +1267,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1442,7 +1435,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="44">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1571,12 +1564,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1584,18 +1571,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1619,12 +1594,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1638,12 +1607,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1667,12 +1630,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1686,12 +1643,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1913,144 +1864,144 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2059,28 +2010,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -2092,22 +2043,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2116,127 +2067,127 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2245,16 +2196,16 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2263,16 +2214,13 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2281,28 +2229,25 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2616,15 +2561,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:GV18"/>
+  <dimension ref="A1:GX18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="FU1" workbookViewId="0">
-      <selection activeCell="GE32" sqref="GE32"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="FC1" workbookViewId="0">
+      <selection activeCell="FQ2" sqref="FQ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:204">
+    <row r="1" spans="1:206">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2637,13 +2582,13 @@
       <c r="H1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="85"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="83"/>
       <c r="P1" s="16" t="s">
         <v>2</v>
       </c>
@@ -2829,11 +2774,11 @@
       <c r="FZ1" s="65"/>
       <c r="GA1" s="65"/>
       <c r="GB1" s="65"/>
-      <c r="GC1" s="70" t="s">
+      <c r="GC1" s="65"/>
+      <c r="GD1" s="65"/>
+      <c r="GE1" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="GD1" s="71"/>
-      <c r="GE1" s="71"/>
       <c r="GF1" s="71"/>
       <c r="GG1" s="71"/>
       <c r="GH1" s="71"/>
@@ -2841,20 +2786,22 @@
       <c r="GJ1" s="71"/>
       <c r="GK1" s="71"/>
       <c r="GL1" s="71"/>
-      <c r="GM1" s="76" t="s">
+      <c r="GM1" s="71"/>
+      <c r="GN1" s="71"/>
+      <c r="GO1" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="GN1" s="77"/>
-      <c r="GO1" s="77"/>
-      <c r="GP1" s="77"/>
-      <c r="GQ1" s="77"/>
-      <c r="GR1" s="77"/>
-      <c r="GS1" s="77"/>
-      <c r="GT1" s="77"/>
-      <c r="GU1" s="77"/>
-      <c r="GV1" s="77"/>
+      <c r="GP1" s="76"/>
+      <c r="GQ1" s="76"/>
+      <c r="GR1" s="76"/>
+      <c r="GS1" s="76"/>
+      <c r="GT1" s="76"/>
+      <c r="GU1" s="76"/>
+      <c r="GV1" s="76"/>
+      <c r="GW1" s="76"/>
+      <c r="GX1" s="76"/>
     </row>
-    <row r="2" ht="121.5" spans="1:204">
+    <row r="2" ht="121.5" spans="1:206">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
@@ -3251,13 +3198,13 @@
       <c r="EB2" s="66" t="s">
         <v>143</v>
       </c>
-      <c r="EC2" s="86" t="s">
+      <c r="EC2" s="84" t="s">
         <v>144</v>
       </c>
-      <c r="ED2" s="86" t="s">
+      <c r="ED2" s="84" t="s">
         <v>145</v>
       </c>
-      <c r="EE2" s="86" t="s">
+      <c r="EE2" s="84" t="s">
         <v>146</v>
       </c>
       <c r="EF2" s="67" t="s">
@@ -3290,31 +3237,31 @@
       <c r="EO2" s="66" t="s">
         <v>156</v>
       </c>
-      <c r="EP2" s="67" t="s">
+      <c r="EP2" s="66" t="s">
         <v>157</v>
       </c>
-      <c r="EQ2" s="66" t="s">
+      <c r="EQ2" s="67" t="s">
         <v>158</v>
       </c>
-      <c r="ER2" s="67" t="s">
+      <c r="ER2" s="66" t="s">
         <v>159</v>
       </c>
-      <c r="ES2" s="66" t="s">
+      <c r="ES2" s="67" t="s">
         <v>160</v>
       </c>
-      <c r="ET2" s="67" t="s">
+      <c r="ET2" s="66" t="s">
         <v>161</v>
       </c>
-      <c r="EU2" s="66" t="s">
+      <c r="EU2" s="67" t="s">
         <v>162</v>
       </c>
-      <c r="EV2" s="67" t="s">
+      <c r="EV2" s="66" t="s">
         <v>163</v>
       </c>
-      <c r="EW2" s="66" t="s">
+      <c r="EW2" s="67" t="s">
         <v>164</v>
       </c>
-      <c r="EX2" s="67" t="s">
+      <c r="EX2" s="66" t="s">
         <v>165</v>
       </c>
       <c r="EY2" s="67" t="s">
@@ -3377,10 +3324,10 @@
       <c r="FR2" s="67" t="s">
         <v>185</v>
       </c>
-      <c r="FS2" s="66" t="s">
+      <c r="FS2" s="67" t="s">
         <v>186</v>
       </c>
-      <c r="FT2" s="66" t="s">
+      <c r="FT2" s="67" t="s">
         <v>187</v>
       </c>
       <c r="FU2" s="66" t="s">
@@ -3407,83 +3354,89 @@
       <c r="GB2" s="66" t="s">
         <v>195</v>
       </c>
-      <c r="GC2" s="72" t="s">
+      <c r="GC2" s="66" t="s">
         <v>196</v>
       </c>
-      <c r="GD2" s="73" t="s">
+      <c r="GD2" s="66" t="s">
         <v>197</v>
       </c>
       <c r="GE2" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="GF2" s="73" t="s">
+      <c r="GF2" s="72" t="s">
         <v>199</v>
       </c>
       <c r="GG2" s="72" t="s">
         <v>200</v>
       </c>
-      <c r="GH2" s="73" t="s">
+      <c r="GH2" s="72" t="s">
         <v>201</v>
       </c>
       <c r="GI2" s="72" t="s">
         <v>202</v>
       </c>
-      <c r="GJ2" s="73" t="s">
+      <c r="GJ2" s="72" t="s">
         <v>203</v>
       </c>
       <c r="GK2" s="72" t="s">
         <v>204</v>
       </c>
-      <c r="GL2" s="73" t="s">
+      <c r="GL2" s="72" t="s">
         <v>205</v>
       </c>
-      <c r="GM2" s="78" t="s">
-        <v>196</v>
-      </c>
-      <c r="GN2" s="79" t="s">
-        <v>197</v>
-      </c>
-      <c r="GO2" s="78" t="s">
+      <c r="GM2" s="72" t="s">
+        <v>206</v>
+      </c>
+      <c r="GN2" s="72" t="s">
+        <v>207</v>
+      </c>
+      <c r="GO2" s="77" t="s">
         <v>198</v>
       </c>
-      <c r="GP2" s="79" t="s">
+      <c r="GP2" s="77" t="s">
         <v>199</v>
       </c>
-      <c r="GQ2" s="78" t="s">
+      <c r="GQ2" s="77" t="s">
         <v>200</v>
       </c>
-      <c r="GR2" s="79" t="s">
+      <c r="GR2" s="77" t="s">
         <v>201</v>
       </c>
-      <c r="GS2" s="78" t="s">
+      <c r="GS2" s="77" t="s">
         <v>202</v>
       </c>
-      <c r="GT2" s="79" t="s">
+      <c r="GT2" s="77" t="s">
         <v>203</v>
       </c>
-      <c r="GU2" s="78" t="s">
+      <c r="GU2" s="77" t="s">
         <v>204</v>
       </c>
-      <c r="GV2" s="79" t="s">
+      <c r="GV2" s="77" t="s">
         <v>205</v>
       </c>
+      <c r="GW2" s="77" t="s">
+        <v>206</v>
+      </c>
+      <c r="GX2" s="77" t="s">
+        <v>207</v>
+      </c>
     </row>
-    <row r="3" spans="1:204">
-      <c r="A3" s="81"/>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
+    <row r="3" spans="1:206">
+      <c r="A3" s="79"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
       <c r="P3" s="6"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -3673,23 +3626,25 @@
       <c r="GT3" s="1"/>
       <c r="GU3" s="1"/>
       <c r="GV3" s="1"/>
+      <c r="GW3" s="1"/>
+      <c r="GX3" s="1"/>
     </row>
-    <row r="4" spans="1:204">
-      <c r="A4" s="81"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="81"/>
+    <row r="4" spans="1:206">
+      <c r="A4" s="79"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="79"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -3879,23 +3834,25 @@
       <c r="GT4" s="1"/>
       <c r="GU4" s="1"/>
       <c r="GV4" s="1"/>
+      <c r="GW4" s="1"/>
+      <c r="GX4" s="1"/>
     </row>
-    <row r="5" spans="1:204">
-      <c r="A5" s="81"/>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
+    <row r="5" spans="1:206">
+      <c r="A5" s="79"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="79"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
@@ -4085,23 +4042,25 @@
       <c r="GT5" s="1"/>
       <c r="GU5" s="1"/>
       <c r="GV5" s="1"/>
+      <c r="GW5" s="1"/>
+      <c r="GX5" s="1"/>
     </row>
-    <row r="6" spans="1:204">
-      <c r="A6" s="81"/>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="81"/>
-      <c r="L6" s="81"/>
-      <c r="M6" s="81"/>
-      <c r="N6" s="81"/>
-      <c r="O6" s="81"/>
+    <row r="6" spans="1:206">
+      <c r="A6" s="79"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="79"/>
+      <c r="O6" s="79"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -4291,23 +4250,25 @@
       <c r="GT6" s="1"/>
       <c r="GU6" s="1"/>
       <c r="GV6" s="1"/>
+      <c r="GW6" s="1"/>
+      <c r="GX6" s="1"/>
     </row>
-    <row r="7" spans="1:204">
-      <c r="A7" s="81"/>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="81"/>
-      <c r="O7" s="81"/>
+    <row r="7" spans="1:206">
+      <c r="A7" s="79"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="79"/>
+      <c r="M7" s="79"/>
+      <c r="N7" s="79"/>
+      <c r="O7" s="79"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -4497,23 +4458,25 @@
       <c r="GT7" s="1"/>
       <c r="GU7" s="1"/>
       <c r="GV7" s="1"/>
+      <c r="GW7" s="1"/>
+      <c r="GX7" s="1"/>
     </row>
-    <row r="8" spans="1:204">
-      <c r="A8" s="81"/>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="81"/>
-      <c r="M8" s="81"/>
-      <c r="N8" s="81"/>
-      <c r="O8" s="81"/>
+    <row r="8" spans="1:206">
+      <c r="A8" s="79"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
+      <c r="L8" s="79"/>
+      <c r="M8" s="79"/>
+      <c r="N8" s="79"/>
+      <c r="O8" s="79"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -4703,23 +4666,25 @@
       <c r="GT8" s="1"/>
       <c r="GU8" s="1"/>
       <c r="GV8" s="1"/>
+      <c r="GW8" s="1"/>
+      <c r="GX8" s="1"/>
     </row>
-    <row r="9" spans="1:204">
-      <c r="A9" s="81"/>
-      <c r="B9" s="81"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="81"/>
-      <c r="N9" s="81"/>
-      <c r="O9" s="81"/>
+    <row r="9" spans="1:206">
+      <c r="A9" s="79"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="79"/>
+      <c r="N9" s="79"/>
+      <c r="O9" s="79"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -4909,23 +4874,25 @@
       <c r="GT9" s="1"/>
       <c r="GU9" s="1"/>
       <c r="GV9" s="1"/>
+      <c r="GW9" s="1"/>
+      <c r="GX9" s="1"/>
     </row>
-    <row r="10" spans="1:204">
-      <c r="A10" s="81"/>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="81"/>
-      <c r="M10" s="81"/>
-      <c r="N10" s="81"/>
-      <c r="O10" s="81"/>
+    <row r="10" spans="1:206">
+      <c r="A10" s="79"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="79"/>
+      <c r="N10" s="79"/>
+      <c r="O10" s="79"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -5115,23 +5082,25 @@
       <c r="GT10" s="1"/>
       <c r="GU10" s="1"/>
       <c r="GV10" s="1"/>
+      <c r="GW10" s="1"/>
+      <c r="GX10" s="1"/>
     </row>
-    <row r="11" spans="1:204">
-      <c r="A11" s="81"/>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="81"/>
-      <c r="K11" s="81"/>
-      <c r="L11" s="81"/>
-      <c r="M11" s="81"/>
-      <c r="N11" s="81"/>
-      <c r="O11" s="81"/>
+    <row r="11" spans="1:206">
+      <c r="A11" s="79"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="79"/>
+      <c r="O11" s="79"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -5321,23 +5290,25 @@
       <c r="GT11" s="1"/>
       <c r="GU11" s="1"/>
       <c r="GV11" s="1"/>
+      <c r="GW11" s="1"/>
+      <c r="GX11" s="1"/>
     </row>
-    <row r="12" spans="1:204">
-      <c r="A12" s="81"/>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="81"/>
-      <c r="L12" s="81"/>
-      <c r="M12" s="81"/>
-      <c r="N12" s="81"/>
-      <c r="O12" s="81"/>
+    <row r="12" spans="1:206">
+      <c r="A12" s="79"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="79"/>
+      <c r="N12" s="79"/>
+      <c r="O12" s="79"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -5527,23 +5498,25 @@
       <c r="GT12" s="1"/>
       <c r="GU12" s="1"/>
       <c r="GV12" s="1"/>
+      <c r="GW12" s="1"/>
+      <c r="GX12" s="1"/>
     </row>
-    <row r="13" spans="1:204">
-      <c r="A13" s="81"/>
-      <c r="B13" s="81"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="81"/>
-      <c r="L13" s="81"/>
-      <c r="M13" s="81"/>
-      <c r="N13" s="81"/>
-      <c r="O13" s="81"/>
+    <row r="13" spans="1:206">
+      <c r="A13" s="79"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="79"/>
+      <c r="N13" s="79"/>
+      <c r="O13" s="79"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -5733,23 +5706,25 @@
       <c r="GT13" s="1"/>
       <c r="GU13" s="1"/>
       <c r="GV13" s="1"/>
+      <c r="GW13" s="1"/>
+      <c r="GX13" s="1"/>
     </row>
-    <row r="14" spans="1:204">
-      <c r="A14" s="81"/>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="81"/>
-      <c r="M14" s="81"/>
-      <c r="N14" s="81"/>
-      <c r="O14" s="81"/>
+    <row r="14" spans="1:206">
+      <c r="A14" s="79"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="79"/>
+      <c r="N14" s="79"/>
+      <c r="O14" s="79"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -5939,23 +5914,25 @@
       <c r="GT14" s="1"/>
       <c r="GU14" s="1"/>
       <c r="GV14" s="1"/>
+      <c r="GW14" s="1"/>
+      <c r="GX14" s="1"/>
     </row>
-    <row r="15" spans="1:204">
-      <c r="A15" s="81"/>
-      <c r="B15" s="81"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="81"/>
-      <c r="L15" s="81"/>
-      <c r="M15" s="81"/>
-      <c r="N15" s="81"/>
-      <c r="O15" s="81"/>
+    <row r="15" spans="1:206">
+      <c r="A15" s="79"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="79"/>
+      <c r="N15" s="79"/>
+      <c r="O15" s="79"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -6145,23 +6122,25 @@
       <c r="GT15" s="1"/>
       <c r="GU15" s="1"/>
       <c r="GV15" s="1"/>
+      <c r="GW15" s="1"/>
+      <c r="GX15" s="1"/>
     </row>
-    <row r="16" spans="1:204">
-      <c r="A16" s="81"/>
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="83"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="81"/>
-      <c r="L16" s="81"/>
-      <c r="M16" s="81"/>
-      <c r="N16" s="81"/>
-      <c r="O16" s="81"/>
+    <row r="16" spans="1:206">
+      <c r="A16" s="79"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="79"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="79"/>
+      <c r="N16" s="79"/>
+      <c r="O16" s="79"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -6351,23 +6330,25 @@
       <c r="GT16" s="1"/>
       <c r="GU16" s="1"/>
       <c r="GV16" s="1"/>
+      <c r="GW16" s="1"/>
+      <c r="GX16" s="1"/>
     </row>
-    <row r="17" spans="1:204">
-      <c r="A17" s="81"/>
-      <c r="B17" s="81"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="83"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="81"/>
-      <c r="N17" s="81"/>
-      <c r="O17" s="81"/>
+    <row r="17" spans="1:206">
+      <c r="A17" s="79"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="79"/>
+      <c r="N17" s="79"/>
+      <c r="O17" s="79"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -6557,23 +6538,25 @@
       <c r="GT17" s="1"/>
       <c r="GU17" s="1"/>
       <c r="GV17" s="1"/>
+      <c r="GW17" s="1"/>
+      <c r="GX17" s="1"/>
     </row>
-    <row r="18" spans="1:204">
-      <c r="A18" s="81"/>
-      <c r="B18" s="81"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="81"/>
-      <c r="L18" s="81"/>
-      <c r="M18" s="81"/>
-      <c r="N18" s="81"/>
-      <c r="O18" s="81"/>
+    <row r="18" spans="1:206">
+      <c r="A18" s="79"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="79"/>
+      <c r="O18" s="79"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -6763,6 +6746,8 @@
       <c r="GT18" s="1"/>
       <c r="GU18" s="1"/>
       <c r="GV18" s="1"/>
+      <c r="GW18" s="1"/>
+      <c r="GX18" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -6775,9 +6760,9 @@
     <mergeCell ref="CL1:CY1"/>
     <mergeCell ref="CZ1:DM1"/>
     <mergeCell ref="DN1:DX1"/>
-    <mergeCell ref="DY1:GB1"/>
-    <mergeCell ref="GC1:GL1"/>
-    <mergeCell ref="GM1:GV1"/>
+    <mergeCell ref="DY1:GD1"/>
+    <mergeCell ref="GE1:GN1"/>
+    <mergeCell ref="GO1:GX1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -6790,8 +6775,8 @@
   <sheetPr/>
   <dimension ref="A1:GX16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView topLeftCell="FG1" workbookViewId="0">
+      <selection activeCell="FQ2" sqref="FQ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7015,18 +7000,18 @@
       <c r="GL1" s="71"/>
       <c r="GM1" s="71"/>
       <c r="GN1" s="71"/>
-      <c r="GO1" s="76" t="s">
+      <c r="GO1" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="GP1" s="77"/>
-      <c r="GQ1" s="77"/>
-      <c r="GR1" s="77"/>
-      <c r="GS1" s="77"/>
-      <c r="GT1" s="77"/>
-      <c r="GU1" s="77"/>
-      <c r="GV1" s="77"/>
-      <c r="GW1" s="77"/>
-      <c r="GX1" s="77"/>
+      <c r="GP1" s="76"/>
+      <c r="GQ1" s="76"/>
+      <c r="GR1" s="76"/>
+      <c r="GS1" s="76"/>
+      <c r="GT1" s="76"/>
+      <c r="GU1" s="76"/>
+      <c r="GV1" s="76"/>
+      <c r="GW1" s="76"/>
+      <c r="GX1" s="76"/>
     </row>
     <row r="2" ht="121.5" spans="1:206">
       <c r="A2" s="6" t="s">
@@ -7060,10 +7045,10 @@
         <v>21</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M2" s="17" t="s">
         <v>24</v>
@@ -7462,190 +7447,190 @@
         <v>155</v>
       </c>
       <c r="EO2" s="67" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="EP2" s="66" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="EQ2" s="67" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="ER2" s="66" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="ES2" s="67" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="ET2" s="66" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="EU2" s="67" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="EV2" s="66" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="EW2" s="67" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="EX2" s="66" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="EY2" s="67" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="EZ2" s="67" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="FA2" s="67" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="FB2" s="67" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="FC2" s="67" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="FD2" s="67" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="FE2" s="67" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="FF2" s="67" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="FG2" s="67" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="FH2" s="67" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="FI2" s="67" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="FJ2" s="67" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="FK2" s="67" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="FL2" s="67" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="FM2" s="67" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="FN2" s="67" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="FO2" s="67" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="FP2" s="67" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="FQ2" s="67" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="FR2" s="67" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="FS2" s="67" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="FT2" s="67" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="FU2" s="66" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="FV2" s="66" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="FW2" s="66" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="FX2" s="66" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="FY2" s="66" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="FZ2" s="66" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="GA2" s="66" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="GB2" s="67" t="s">
         <v>210</v>
       </c>
       <c r="GC2" s="66" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="GD2" s="66" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="GE2" s="72" t="s">
-        <v>196</v>
-      </c>
-      <c r="GF2" s="73" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="GF2" s="72" t="s">
+        <v>199</v>
       </c>
       <c r="GG2" s="72" t="s">
+        <v>200</v>
+      </c>
+      <c r="GH2" s="72" t="s">
+        <v>201</v>
+      </c>
+      <c r="GI2" s="72" t="s">
+        <v>202</v>
+      </c>
+      <c r="GJ2" s="72" t="s">
+        <v>203</v>
+      </c>
+      <c r="GK2" s="72" t="s">
+        <v>204</v>
+      </c>
+      <c r="GL2" s="72" t="s">
+        <v>205</v>
+      </c>
+      <c r="GM2" s="72" t="s">
+        <v>206</v>
+      </c>
+      <c r="GN2" s="72" t="s">
+        <v>207</v>
+      </c>
+      <c r="GO2" s="77" t="s">
         <v>198</v>
       </c>
-      <c r="GH2" s="73" t="s">
+      <c r="GP2" s="77" t="s">
         <v>199</v>
       </c>
-      <c r="GI2" s="72" t="s">
+      <c r="GQ2" s="77" t="s">
         <v>200</v>
       </c>
-      <c r="GJ2" s="73" t="s">
+      <c r="GR2" s="77" t="s">
         <v>201</v>
       </c>
-      <c r="GK2" s="72" t="s">
+      <c r="GS2" s="77" t="s">
         <v>202</v>
       </c>
-      <c r="GL2" s="73" t="s">
+      <c r="GT2" s="77" t="s">
         <v>203</v>
       </c>
-      <c r="GM2" s="72" t="s">
+      <c r="GU2" s="77" t="s">
         <v>204</v>
       </c>
-      <c r="GN2" s="73" t="s">
+      <c r="GV2" s="77" t="s">
         <v>205</v>
       </c>
-      <c r="GO2" s="78" t="s">
-        <v>196</v>
-      </c>
-      <c r="GP2" s="79" t="s">
-        <v>197</v>
-      </c>
-      <c r="GQ2" s="78" t="s">
-        <v>198</v>
-      </c>
-      <c r="GR2" s="79" t="s">
-        <v>199</v>
-      </c>
-      <c r="GS2" s="78" t="s">
-        <v>200</v>
-      </c>
-      <c r="GT2" s="79" t="s">
-        <v>201</v>
-      </c>
-      <c r="GU2" s="78" t="s">
-        <v>202</v>
-      </c>
-      <c r="GV2" s="79" t="s">
-        <v>203</v>
-      </c>
-      <c r="GW2" s="78" t="s">
-        <v>204</v>
-      </c>
-      <c r="GX2" s="79" t="s">
-        <v>205</v>
+      <c r="GW2" s="77" t="s">
+        <v>206</v>
+      </c>
+      <c r="GX2" s="77" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="3" ht="67.5" spans="2:206">
@@ -8204,64 +8189,64 @@
       <c r="GD3" s="67" t="s">
         <v>395</v>
       </c>
-      <c r="GE3" s="73" t="s">
+      <c r="GE3" s="72" t="s">
         <v>220</v>
       </c>
-      <c r="GF3" s="73" t="s">
+      <c r="GF3" s="72" t="s">
         <v>396</v>
       </c>
-      <c r="GG3" s="73" t="s">
+      <c r="GG3" s="72" t="s">
         <v>220</v>
       </c>
-      <c r="GH3" s="73" t="s">
+      <c r="GH3" s="72" t="s">
         <v>396</v>
       </c>
-      <c r="GI3" s="73" t="s">
+      <c r="GI3" s="72" t="s">
         <v>220</v>
       </c>
-      <c r="GJ3" s="73" t="s">
+      <c r="GJ3" s="72" t="s">
         <v>396</v>
       </c>
-      <c r="GK3" s="73" t="s">
+      <c r="GK3" s="72" t="s">
         <v>220</v>
       </c>
-      <c r="GL3" s="73" t="s">
+      <c r="GL3" s="72" t="s">
         <v>396</v>
       </c>
-      <c r="GM3" s="73" t="s">
+      <c r="GM3" s="72" t="s">
         <v>220</v>
       </c>
-      <c r="GN3" s="73" t="s">
+      <c r="GN3" s="72" t="s">
         <v>396</v>
       </c>
-      <c r="GO3" s="79" t="s">
+      <c r="GO3" s="77" t="s">
         <v>220</v>
       </c>
-      <c r="GP3" s="79" t="s">
+      <c r="GP3" s="77" t="s">
         <v>396</v>
       </c>
-      <c r="GQ3" s="79" t="s">
+      <c r="GQ3" s="77" t="s">
         <v>220</v>
       </c>
-      <c r="GR3" s="79" t="s">
+      <c r="GR3" s="77" t="s">
         <v>396</v>
       </c>
-      <c r="GS3" s="79" t="s">
+      <c r="GS3" s="77" t="s">
         <v>220</v>
       </c>
-      <c r="GT3" s="79" t="s">
+      <c r="GT3" s="77" t="s">
         <v>396</v>
       </c>
-      <c r="GU3" s="79" t="s">
+      <c r="GU3" s="77" t="s">
         <v>220</v>
       </c>
-      <c r="GV3" s="79" t="s">
+      <c r="GV3" s="77" t="s">
         <v>396</v>
       </c>
-      <c r="GW3" s="79" t="s">
+      <c r="GW3" s="77" t="s">
         <v>220</v>
       </c>
-      <c r="GX3" s="79" t="s">
+      <c r="GX3" s="77" t="s">
         <v>396</v>
       </c>
     </row>
@@ -8470,31 +8455,31 @@
       <c r="GA4" s="69"/>
       <c r="GB4" s="69"/>
       <c r="GC4" s="69"/>
-      <c r="GD4" s="74"/>
-      <c r="GE4" s="75" t="s">
+      <c r="GD4" s="73"/>
+      <c r="GE4" s="74" t="s">
         <v>407</v>
       </c>
-      <c r="GF4" s="75"/>
-      <c r="GG4" s="75"/>
-      <c r="GH4" s="75"/>
-      <c r="GI4" s="75"/>
-      <c r="GJ4" s="75"/>
-      <c r="GK4" s="75"/>
-      <c r="GL4" s="75"/>
-      <c r="GM4" s="75"/>
-      <c r="GN4" s="75"/>
-      <c r="GO4" s="80" t="s">
+      <c r="GF4" s="74"/>
+      <c r="GG4" s="74"/>
+      <c r="GH4" s="74"/>
+      <c r="GI4" s="74"/>
+      <c r="GJ4" s="74"/>
+      <c r="GK4" s="74"/>
+      <c r="GL4" s="74"/>
+      <c r="GM4" s="74"/>
+      <c r="GN4" s="74"/>
+      <c r="GO4" s="78" t="s">
         <v>408</v>
       </c>
-      <c r="GP4" s="80"/>
-      <c r="GQ4" s="80"/>
-      <c r="GR4" s="80"/>
-      <c r="GS4" s="80"/>
-      <c r="GT4" s="80"/>
-      <c r="GU4" s="80"/>
-      <c r="GV4" s="80"/>
-      <c r="GW4" s="80"/>
-      <c r="GX4" s="80"/>
+      <c r="GP4" s="78"/>
+      <c r="GQ4" s="78"/>
+      <c r="GR4" s="78"/>
+      <c r="GS4" s="78"/>
+      <c r="GT4" s="78"/>
+      <c r="GU4" s="78"/>
+      <c r="GV4" s="78"/>
+      <c r="GW4" s="78"/>
+      <c r="GX4" s="78"/>
     </row>
     <row r="5" spans="4:6">
       <c r="D5" s="13"/>
